--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/weave/</t>
+          <t>http://purl.org/wear/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>wear</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/weave/</t>
+          <t>http://purl.org/wear/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wind Energy ActiVitiEs (WEAVE)</t>
+          <t>Wind Energy mAteRials (WEAR) Taxonomy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A classification of activities in which data are produced</t>
+          <t>A classification of wind turbine materials</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>https://orcid.org/0000-0003-4124-9040</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,17 +744,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4124-9040</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -776,17 +776,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -808,17 +808,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>2017-09-01T12:00+02:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -840,17 +840,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2017-09-01T12:00+02:00</t>
+          <t>2021-10-05T12:00+02:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Date of the last vocabulary update</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -872,19 +872,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2021-10-01T12:00+02:00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -904,19 +896,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -928,59 +960,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>wear:Blades</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
+          <t>Blades</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>A collection of terms related to materials used for the wind turbine blade production.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -992,16 +992,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:Tower</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Measurements</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A collection of terms related to materials used for the wind tower production.</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1020,16 +1024,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>activities:Modeling</t>
+          <t>wear:Drivetrain</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modeling</t>
+          <t>Drivetrain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A collection of terms related to materials used for the wind turbine drivetrain production.</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1048,16 +1056,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>activities:Validation</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>Transformer And Inductor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A collection of terms related to materials used for the wind turbine transformer and industor production.</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1076,12 +1088,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>activities:Fieldexperiment</t>
+          <t>wear:Compositelaminate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Field experiment</t>
+          <t>Composite laminate</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1089,7 +1101,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:Bladesmaterials</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1108,12 +1120,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>activities:Long-termmonitoring</t>
+          <t>wear:SandwichStructure</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Long-term monitoring</t>
+          <t>Sandwich Structure</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1121,7 +1133,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:Bladesmaterials</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1140,12 +1152,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>activities:Laboratorytest</t>
+          <t>wear:Gealcoats</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Laboratory test</t>
+          <t>Geal coats</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1153,7 +1165,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:Bladesmaterials</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1172,12 +1184,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>activities:WindTunneltest</t>
+          <t>wear:Steel</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wind Tunnel test</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1185,7 +1197,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:TowerMaterials, wear:Drivetrain</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1204,12 +1216,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>activities:Fieldtest</t>
+          <t>wear:Concrete</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Field test</t>
+          <t>Concrete</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1217,7 +1229,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:TowerMaterials, wear:Drivetrain</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1236,12 +1248,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>activities:Fullscaletest</t>
+          <t>wear:Wood</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Full scale test</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1249,7 +1261,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:TowerMaterials</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1268,12 +1280,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>activities:ConditionMonitoring</t>
+          <t>wear:Aluminium</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Condition Monitoring</t>
+          <t>Aluminium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1281,7 +1293,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:Drivetrain, wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1300,12 +1312,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>activities:Fatiguetests</t>
+          <t>wear:Cableinsulation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fatigue tests</t>
+          <t>Cable insulation</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1313,7 +1325,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:Drivetrain</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1332,12 +1344,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>activities:Statictests</t>
+          <t>wear:Magnets</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Static tests</t>
+          <t>Magnets</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1345,7 +1357,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:Drivetrain</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1364,12 +1376,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>activities:Questionnaires</t>
+          <t>wear:Castiron</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Questionnaires</t>
+          <t>Cast iron</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1377,7 +1389,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:Drivetrain</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1396,12 +1408,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>activities:Interviews</t>
+          <t>wear:Copper</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Interviews</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1409,7 +1421,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>activities:Measurements</t>
+          <t>wear:TransformerandInductor</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1428,12 +1440,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>activities:Manufacturing</t>
+          <t>wear:Insulation</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Insulation</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1441,7 +1453,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>activities:Validation</t>
+          <t>wear:TransformerandInductor</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1460,12 +1472,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>activities:Reliabilityandtesting</t>
+          <t>wear:Laminatedsteelsheets</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Reliability and testing</t>
+          <t>Laminated steel sheets</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1473,7 +1485,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>activities:Validation</t>
+          <t>wear:TransformerandInductor</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1492,12 +1504,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>activities:Certification</t>
+          <t>wear:Siliconsteel</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Certification</t>
+          <t>Silicon steel</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1505,7 +1517,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>activities:Validation</t>
+          <t>wear:TransformerandInductor</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1524,12 +1536,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>activities:Uncertaintyanalysis</t>
+          <t>wear:Nickel-iron</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Uncertainty analysis</t>
+          <t>Nickel-iron</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1537,7 +1549,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>activities:Validation</t>
+          <t>wear:TransformerandInductor</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1556,14 +1568,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>activities:</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>wear:Cobalt-iron</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cobalt-iron</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>wear:TransformerandInductor</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1580,14 +1600,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>activities:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>wear:AmorphousAlloy</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Amorphous Alloy</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>wear:TransformerandInductor</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1604,14 +1632,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>activities:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>wear:Nanocrystalline</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nanocrystalline</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>wear:TransformerandInductor</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1628,14 +1664,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>activities:</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>wear:Powdercore</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Powder core</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>wear:TransformerandInductor</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1652,14 +1696,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>activities:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>wear:Powderiron</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Powder iron</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>wear:TransformerandInductor</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1676,14 +1728,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>activities:</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>wear:Ferrite</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ferrite</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>wear:TransformerandInductor</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1700,7 +1760,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1724,7 +1784,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1748,7 +1808,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1772,7 +1832,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1796,7 +1856,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1820,7 +1880,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1844,7 +1904,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1868,7 +1928,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1892,7 +1952,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1916,7 +1976,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1940,7 +2000,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>activities:</t>
+          <t>wear:</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1961,30 +2021,6 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>activities:</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -1101,7 +1101,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>wear:Bladesmaterials</t>
+          <t>wear:Blades</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>wear:Bladesmaterials</t>
+          <t>wear:Blades</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>wear:Bladesmaterials</t>
+          <t>wear:Blades</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1197,7 +1197,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>wear:TowerMaterials, wear:Drivetrain</t>
+          <t>wear:Tower, wear:Drivetrain</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1229,7 +1229,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>wear:TowerMaterials, wear:Drivetrain</t>
+          <t>wear:Tower, wear:Drivetrain</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>wear:TowerMaterials</t>
+          <t>wear:Tower</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1485,7 +1485,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1549,7 +1549,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1581,7 +1581,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1645,7 +1645,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1677,7 +1677,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1709,7 +1709,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>wear:TransformerandInductor</t>
+          <t>wear:TransformerAndInductor</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
